--- a/TPI_files/X-TPI-greniersa-web-Grille_de_tests.xlsx
+++ b/TPI_files/X-TPI-greniersa-web-Grille_de_tests.xlsx
@@ -74,9 +74,6 @@
     <t>Trier les travailleur par tous les tris possibles (id, prénom, nom, nom d'utilisateur, %,MSP,date de création)</t>
   </si>
   <si>
-    <t>Insérer un Maitre Sociaux Professionnel dans la base de données à l'aide du formulaire</t>
-  </si>
-  <si>
     <t>Le page se rafraichit et le MSP apparaît dans le tableau</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Page travailleurs, tableau de travailleurs</t>
   </si>
   <si>
-    <t>Page travailleurs, tableau de Maître Sociaux Professionnels</t>
-  </si>
-  <si>
     <t>Le menu s'affiche correctement sous forme de pop-up</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>La requête est tout de même acceptée</t>
+  </si>
+  <si>
+    <t>Page travailleurs, tableau de Maître socioprofessionnels</t>
+  </si>
+  <si>
+    <t>Insérer un Maitre socioprofessionnels dans la base de données à l'aide du formulaire</t>
   </si>
 </sst>
 </file>
@@ -382,6 +382,12 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -399,12 +405,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,30 +702,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -738,25 +738,25 @@
         <v>42873</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42873</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>42873</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -785,7 +785,7 @@
         <v>42873</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -800,7 +800,7 @@
         <v>42873</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -815,7 +815,7 @@
         <v>42873</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -830,252 +830,252 @@
         <v>42873</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="3">
         <v>42873</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" s="3">
         <v>42873</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <v>42873</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42873</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="3">
         <v>42873</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C16" s="3">
         <v>42873</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <v>42873</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
         <v>42873</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3">
         <v>42873</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="3">
         <v>42873</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="3">
         <v>42873</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3">
         <v>42873</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3">
         <v>42873</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3">
         <v>42873</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C26" s="3">
         <v>42873</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2"/>
     </row>

--- a/TPI_files/X-TPI-greniersa-web-Grille_de_tests.xlsx
+++ b/TPI_files/X-TPI-greniersa-web-Grille_de_tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>Fonctionnalité à tester</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Le page se rafraichit et le MSP n'apparaît plus dans le tableau</t>
   </si>
   <si>
-    <t>La pop-up pour gérér les niveaux s'affiche lorsque le bouton gestion niveaux est cliqué</t>
-  </si>
-  <si>
-    <t>Page travailleurs, tableau de travailleurs</t>
-  </si>
-  <si>
     <t>Le menu s'affiche correctement sous forme de pop-up</t>
   </si>
   <si>
@@ -131,21 +125,6 @@
     <t>Correspond, avec l'erreur suivante: "Veuillez vérifier que tous les champs aient bien étés remplis correctement"</t>
   </si>
   <si>
-    <t>Le page se rafraichit et une erreur intervient indiquant que les initiales choisient sont déjà utilisées</t>
-  </si>
-  <si>
-    <t>Insérer un trvailleur avec un nom d'utilisateur identiques à celles d'un autre travailleur</t>
-  </si>
-  <si>
-    <t>Insérer un MSP avec des initiales indentiques à celles d'un autre MSP</t>
-  </si>
-  <si>
-    <t>Vérifier si le nom d'utilisateur est libre avant de linsérer dans la base de données</t>
-  </si>
-  <si>
-    <t>Vérifier si les initiales sont libre avant de linsérer dans la base de données</t>
-  </si>
-  <si>
     <t>Supprimer un niveau 1 à l'aide du bouton</t>
   </si>
   <si>
@@ -176,13 +155,155 @@
     <t>La requête est refusée avec un erreur indiquant que le formulaire n'est pas complet</t>
   </si>
   <si>
-    <t>La requête est tout de même acceptée</t>
-  </si>
-  <si>
-    <t>Page travailleurs, tableau de Maître socioprofessionnels</t>
-  </si>
-  <si>
     <t>Insérer un Maitre socioprofessionnels dans la base de données à l'aide du formulaire</t>
+  </si>
+  <si>
+    <t>Insérer un travailleur avec un nom d'utilisateur identiques à celles d'un autre travailleur</t>
+  </si>
+  <si>
+    <t>Réparé</t>
+  </si>
+  <si>
+    <t>Limiter entre 1 et 100 %,  et si la valeur donnée ne correspond pas(ex 400) renvoie une erreur "Veuillez vérifier le pourcentage"</t>
+  </si>
+  <si>
+    <t>Page travailleurs, tableau des travailleurs</t>
+  </si>
+  <si>
+    <t>Page travailleurs, tableau des Maîtres socioprofessionnels</t>
+  </si>
+  <si>
+    <t>Page planning, planning</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Temps Passé</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>Double cliquer 2 fois sur une case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fait apparaître le formulaire pour ajouter un travailleur à la tâche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecrire une à plusieurs lettres dans le champs </t>
+  </si>
+  <si>
+    <t>Une liste de travailleurs dont le nom d'utilisateur qui correspond aux lettres inscrites apparaît</t>
+  </si>
+  <si>
+    <t>Clic sur le nom d'utilisateur proposé dans la liste</t>
+  </si>
+  <si>
+    <t>Amélioration possible: ajout d'autofocus sur le champs texte</t>
+  </si>
+  <si>
+    <t>Passer sa souris sur une cellule qui contient un nom d'utilisateur</t>
+  </si>
+  <si>
+    <t>Fait apparaître une croix rouge à droite du nom d'utilisateur</t>
+  </si>
+  <si>
+    <t>Clic sur la croix apparue</t>
+  </si>
+  <si>
+    <t>Supprimer l'entrée de la base de données et rafraichit le tableau</t>
+  </si>
+  <si>
+    <t>Amélioration possible : La croix apparaît sans faire bouger toutes les autres cases ( du a la longueur de la case)</t>
+  </si>
+  <si>
+    <t>Click sur le bouton "Semaine précédente" ou "Semaine suivante"</t>
+  </si>
+  <si>
+    <t>Affichage du planning</t>
+  </si>
+  <si>
+    <t>Déplace le planning à la semaine souhaitée (précédente ou suivante) et met à jour la semaine affichée</t>
+  </si>
+  <si>
+    <t>Clic sur le bouton PDF</t>
+  </si>
+  <si>
+    <t>Un document PDF s'ouvre avec le planning (et peut donc être imprimé)</t>
+  </si>
+  <si>
+    <t>Clic sur le bouton "+" dans la colonne action</t>
+  </si>
+  <si>
+    <t>Duplique la ligne, sans les noms d'utilisateur</t>
+  </si>
+  <si>
+    <t>Double clic sur une cellule de la nouvelle ligne</t>
+  </si>
+  <si>
+    <t>Fonctionne comme les autres</t>
+  </si>
+  <si>
+    <t>BUG : overwrite du nom d'utilisateur en dessus et la colonne disparaît après le rafraichissement du tableau</t>
+  </si>
+  <si>
+    <t>Le page se rafraichit et une erreur intervient indiquant que les initiales choisies sont déjà utilisées</t>
+  </si>
+  <si>
+    <t>Vérifier si le nom d'utilisateur est libre avant de l'insérer dans la base de données</t>
+  </si>
+  <si>
+    <t>Insérer un MSP avec des initiales identiques à celles d'un autre MSP</t>
+  </si>
+  <si>
+    <t>Vérifier si les initiales sont libre avant de l'insérer dans la base de données</t>
+  </si>
+  <si>
+    <t>La pop-up pour gérer les niveaux s'affiche lorsque le bouton gestion niveaux est cliqué</t>
+  </si>
+  <si>
+    <t>Mise en place de tout un système pour accepter plusieurs lignes par atelier, 5 jours de travail nécéssaires éstimés</t>
+  </si>
+  <si>
+    <t>BUG présent</t>
+  </si>
+  <si>
+    <t>Clic sur la croix dans la colonne action</t>
+  </si>
+  <si>
+    <t>Supprime les lignes dupliquées uniquement</t>
+  </si>
+  <si>
+    <t>Ajouter le travailleur à la case et rafraîchit le tableau. Si le travailleur est redondant dans la colonne (2 activités en même temps), indique une erreur</t>
+  </si>
+  <si>
+    <t>Correspond, avec un message d'erreur "Le travailleur semble déjà faire quelque chose.."</t>
+  </si>
+  <si>
+    <t>Le planning apparaît à la semaine en cours et affiche correctement la semaine en cours. Les couleurs correspondent aux couleurs des ateliers définies</t>
+  </si>
+  <si>
+    <t>Amélioration possible: afficher les couleur des niveaux 1</t>
+  </si>
+  <si>
+    <t>BUG : La requête est tout de même acceptée</t>
+  </si>
+  <si>
+    <t>Correspond, avec l'erreur suivante: "Veuillez vérifier que tous les champs aient bien étés remplis correctement" 
+BUG : les chiffres trop grands ou trop petits sont acceptés</t>
+  </si>
+  <si>
+    <t>Page planning travailleurs, planning</t>
+  </si>
+  <si>
+    <t>Le planning s'affiche correctement, les ateliers correspondent aux utilisateurs et les couleurs des ateliers sont respéctés</t>
+  </si>
+  <si>
+    <t>Amélioration possible : Modifier le style du tableau</t>
+  </si>
+  <si>
+    <t>Amélioration possible : masquer les boutons de la colonne "action" et modifier les styles</t>
   </si>
 </sst>
 </file>
@@ -198,19 +319,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -235,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,29 +365,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -275,52 +383,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -367,43 +429,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,453 +775,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="F1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C3" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C24" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42873</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="3">
-        <v>42873</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A17:E17"/>
+  <mergeCells count="5">
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TPI_files/X-TPI-greniersa-web-Grille_de_tests.xlsx
+++ b/TPI_files/X-TPI-greniersa-web-Grille_de_tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>Fonctionnalité à tester</t>
   </si>
@@ -304,6 +304,13 @@
   </si>
   <si>
     <t>Amélioration possible : masquer les boutons de la colonne "action" et modifier les styles</t>
+  </si>
+  <si>
+    <t>Correspond, mais avec un BUG :
+Le fait de superposer 2 popup fige le menu, qui en soit n'est pas si problématique.</t>
+  </si>
+  <si>
+    <t>Correspond, mais les semaines précédentes sont tout de même modifiables</t>
   </si>
 </sst>
 </file>
@@ -777,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1232,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>42873</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1264,7 +1271,7 @@
         <v>42888</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1532,6 +1539,6 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>